--- a/recommendApi/media/pjobsdata.xlsx
+++ b/recommendApi/media/pjobsdata.xlsx
@@ -1,84 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Taixuong\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D691FFD6-DDD8-41C9-86D7-F85A10CDBA39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>fresher java web fullstack developer tham_gia chương_trình đào_tạo tân_binh đào_tạo chuyên_sâu vòng java web chuẩn_bị kiến_thức hoàn_thiện kỹ_năng tham_gia dự_án nội_dung bao_gồm o kiến_thức database mô_hình quan_hệ thực_thể erm hệ quản_trị cơ_sở dữ_liệu microsoft sql server làm_việc truy sql tsql statements advanced dml sql join index view sử_dụng đối_tượng nâng database objects transactions stored procedure user defined function trigger o lập_trình java web java core java se basic concepts controlflow keyword classes and objects oop string static collections java io concurrency lambda expressions exceptions jdbc thiết_kế web bootstrap js jquery ajax jspservlet basics exception handling mô_hình mvc hibernate configuration hibernate mapping queries and criteria performance stored procedure sử_dụng thành_thạo spring framework spring core spring mvc xml javabase annotation spring data jpa spring build tools maven gradle o phát_triển phần_mềm quy_trình chuyên_nghiệp thực_hiện dự_án bao_gồm thiết_kế ứng_dụng gui thiết_kế code thực_hiện code review using stylecop fxcop unit test nunit kiểm_tra chất_lượng dự_án luyện_tập kỹ_năng code dự_án chuyên_gia_công_nghệ lập_trình_viên kinh_nghiệm sinh_viên đãsắp tốt_nghiệp chuyên_ngành công_nghệ thông_tin toán khoa_học máy_tính kỹ_thuật phần_mềm điện_tử viễn_thông chuyên_ngành liên_quan nắm vững kiến_thức cơ_bản lập_trình hướng đối_tượng java có_thể tham_gia đào tạolàm fulltime ham học_hỏi máu_lửa nhiệt_huyết sẵn_sàng chinh_chiến đối_đầu thử_thách khó_khăn dự_án phần_mềm tuân_thủ kỷ_luật trách_nhiệm công_việc ưu_tiên ứng_viên khả_năng đọc tiếng</t>
-  </si>
-  <si>
-    <t>fresher java developerlập api web app sử_dụng spring boot framework thiết_kế xây_dựng hệ_thống xử_lý logic thao_tác cơ_sở dữ_liệu phạm_vi công_việc yêu_cầu khách_hàng viết tài_liệu thiết_kế hệ_thống develop testing deploy vận_hành hệ_thống khách_hàng phối_hợp chặt_chẽ lập_trình công_việc hoàn_thành thời_hạn thống_nhất yêu_cầu dự ánthành thạo git html css javascript hiểu_biết java core lập_trình hướng đối_tượng kiến_thức thiết_kế hệ_thống db api khả_năng làm_việc độc_lập làm_việc</t>
-  </si>
-  <si>
-    <t>fresher netkiến thức database mô_hình quan_hệ thực_thể erm hệ quản_trị cơ_sở dữ_liệu microsoft sql server làm_việc truy sql tsql statements advanced dml sql join index view sử_dụng đối_tượng nâng database objects transactions stored procedure user defined function trigger lập_trình net variableconstant data type control of flow lập_trình hướng đối_tượng oop linq sử_dụng collectionsgenerics kết_nối cơ_sở dữ_liệu adonet làm_việc winforms làm_việc io exception lập_trình concurrency net technologies web app aspnet mvc thiết_kế web html css js jquery ajax sử_dụng entity framework phát_triển phần_mềm quy_trình chuyên_nghiệp thực_hiện dự_án bao_gồm thiết_kế ứng_dụng gui thiết_kế code thực_hiện code review using stylecop fxcop unit test nunit kiểm_tra chất_lượng dự_án luyện_tập kỹ_năng code dự_án chuyên_gia_công_nghệ lập_trình_viên kinh nghiệmlà sinh_viên đãsắp tốt_nghiệp chuyên_ngành công_nghệ thông_tin toán khoa_học máy_tính kỹ_thuật phần_mềm điện_tử viễn_thông chuyên_ngành liên_quan nắm vững kiến_thức cơ_bản lập_trình hướng đối_tượng net có_thể tham_gia đào tạolàm fulltime ham học_hỏi máu_lửa nhiệt_huyết sẵn_sàng chinh_chiến đối_đầu thử_thách khó_khăn dự_án phần_mềm tuân_thủ kỷ_luật trách_nhiệm công_việc ưu_tiên ứng_viên khả_năng đọc tiếng</t>
-  </si>
-  <si>
-    <t>fresher net developer tham_gia chương_trình nextgen titan chúng_tôi tư_cách phát_triển net học_viên tham_gia dự_án thực_tế hưởng chế_độ phúc_lợi hấp_dẫn hướng_dẫn phát_triển khắc_phục sự_cố ứng_dụng web viết net đào_tạo vòng đời phát_triển phần_mềm chuyên_gia kinh_nghiệm tay_nghề đào_tạo kỹ_năng mềm cần_thiết cao_đẳng cử_nhân kỹ_thuật phần_mềm công_nghệ thông_tin chuyên_ngành liên_quan ít_nhất kinh_nghiệm phát_triển net phát_triển sự_nghiệp lĩnh_vực phát_triển web kiến thức lập_trình hướng đối_tượng oop kinh_nghiệm dự_án thực_tế lợi_thế khả_năng sử_dụng tiếng tư_duy logic tinh_thần làm_việc khả_năng học_hỏi công_nghệ chủ_động tổ_chức trách_nhiệm công_việc kinh_nghiệm làm_việc html css javascript kiến thức sql ngôn_ngữ thủ_tục cơ_sở dữ_liệu kinh_nghiệm dự_án thực_tế lợi_thế kiến_thức vững_chắc azure js framework reactjs angularjs vuejs cộng</t>
-  </si>
-  <si>
-    <t>fresher nodejs tham_gia phát_triển hệ_thống erp công_ty phân hệ quản_lý nhân_sự quản_lý sản_xuất kho hàng hàng giao hàng bảo_hành nền_tảng web mobile tham_gia đào_tạo training tìm_hiểu nodejs tham_gia dự_án thực_tế thời_gian đào_tạo hướng_dẫn hỗ_trợ lộ_trình sự_nghiệp sinh_viên tốt_nghiệp có_thể làm_việc fulltime đam_mê học_hỏi lập_trình tìm_hiểu công_nghệ kiến_thức cấu_trúc dữ_liệu giải_thuật kiến_thức cơ_bản ngôn_ngữ nodejs nắm kiến_thức kĩ_năng javascript restful api khả_năng đọc tài_liệu tiếng</t>
-  </si>
-  <si>
-    <t>lập_trình_viên wordpress thiết_kế website công_ty khách_hàng đối_tác dựa file thiết_kế sẵn lập_trình chức_năng website yêu_cầu chỉnh_sửa lỗi liên_quan giao_diện chức_năng website tham_gia phát_triển tối_ưu sản_phẩm website ngày_càng chuẩn_hoá thời_gian thực_hiện dự_án tối_ưu chi_phí triển_khai lập_trình chỉnh_sửa tối_ưu website tiêu_chuẩn công_ty kiểm_tra khắc_phục website hack nhiễm mã độc công_việc giao quản_lý kinh_nghiệm làm_việc nền_tảng_wordpress ngôn_ngữ php tốt_nghiệp đại_học chuyên_ngành công_nghệ thông_tin thành_thạo htmljavascriptjquerycssajax cms wordpress kiến_thức hệ quản_trị cơ_sở dữ_liệu mysql ưu_tiên kinh_nghiệm tiếp_xúc làm_việc nền_tảng thiết_kế website php framework laravel codeigniter cms wordpress joomla kiến_thức cơ_bản aspnet khả_năng tư_duy chủ_động công_việc tinh_thần trách_nhiệm hoàn_thành công_việc giao</t>
-  </si>
-  <si>
-    <t>lập_trình_viên php wordpress thực_hiện website html tĩnh website động cms wordpress lập_trình plugin tính_năng yêu_cầu phát_sinh kết_nối cms wordpress phần_mềm thông_qua rest api triển_khai dự_án giải_pháp thực_tế khách_hàng phát_triển tính_năng chức_năng hay_ho thực_tế php căn_bản php nâng mvc oop lợi_thế jquery htmlcss căn_bản sử_dụng cms wordpress theme wordpress plugin code wordpress core theme mysql database lợi_thế tư_duy logic khả_năng research</t>
-  </si>
-  <si>
-    <t>thực_tập_sinh nettham gia quá_trình triển_khai vận_hành dự_án trìnhhoàn bài_tập khóa học cá_nhân yêu_cầu mentorthực công_việc chỉ_đạo pmsinh viên tốt_nghiệp ngành cntt công_nghệ phần_mềm khoa_học máy_tính ngành quannắm vững kiến_thức dự_án sử_dụng ngôn_ngữ netcó làm_việc fulltimetiếng</t>
-  </si>
-  <si>
-    <t>backend net developer tham_gia phát_triển sản_phẩm công_ty crm mes tham_gia quá_trình nghiên_cứu công_nghệ phát_triển tính_năng triển_khai sản_phẩm khách_hàng doanh_nghiệp bảo_hành bảo_trì sản_phẩm quản_lý task hằng báo_cáo công_việc tốt_nghiệp họccao đẳng chuyên_ngành cntt đtvt kinh_nghiệm thành_thạo aspnet mvc net core kiến_thức microservices lợi_thế kinh_nghiệm làm_việc css html javascript jquery ajax kinh_nghiệm làm_việc mssql sử_dụng stored procedure hiểu_biết react js react native lợi_thế kinh_nghiệm dự_án phần_mềm quản_lý</t>
-  </si>
-  <si>
-    <t>frontend developer reactphát triển bảo_trì dự_án tính_năng hệ_thống crm công_ty nền_tảng công_nghệ reactjsnghiệp vụ quản_lý user khách_hàng hàng công_ty quy_trình nhập dữ_liệu khách_hàng viênphát triển website_đa_ngôn_ngữ nội_dung đa dạngtối ưu tốc_độ tải websitelàm hiệu_quả react html css js jquery ajaxthành thạo responsive đảm_bảo hiển_thị duyệtthuần restful api graphqlthành thạo responsive đảm_bảo hiển_thị duyệthiểu kinh_nghiệm design pattern lợi_thế lớnbiết làm_việc amp tối_ưu giao_diện mobile tối_ưu hiệu_quả website google speed insight lợi thếhiểu seo lợi_thế</t>
-  </si>
-  <si>
-    <t>jobdata</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -93,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -417,101 +420,514 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>_id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>fulltext</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>fulltext1</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>fulltext2</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>fulltext3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>6385c7473c4d036a0cccee16</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>- Là sinh viên đã/sắp tốt nghiệp chuyên ngành Công nghệ thông tin, Toán tin, Khoa học máy tính, Kỹ thuật phần mềm, Điện tử viễn thông… hoặc các chuyên ngành có liên quan. - Nắm vững kiến thức cơ bản về Lập trình hướng đối tượng và Java. - Có thể tham gia đào tạo/làm việc Full-time từ thứ 2 - thứ 6. - Ham học hỏi, máu lửa, nhiệt huyết, sẵn sàng chinh chiến đối đầu với thử thách khó khăn tại các dự án phần mềm lớn. Tuân thủ kỷ luật &amp; có trách nhiệm với công việc. - Ưu tiên ứng viên có khả năng đọc hiểu tiếng Anh tốt.- Tham gia chương trình Đào tạo tân binh: Đào tạo chuyên sâu trong vòng 3 tháng về Java Web để chuẩn bị các kiến thức và hoàn thiện kỹ năng trước khi tham gia vào dự án, với các nội dung bao gồm: o Kiến thức về Database: Mô hình quan hệ thực thể (ERM). Hệ quản trị cơ sở dữ liệu Microsoft SQL Server - hiểu và làm việc với truy vấn SQL: T-SQL Statements, Advanced DML, SQL Join, Index, View., sử dụng các đối tượng nâng cao Database Objects: Transactions, Stored Procedure, User Defined Function, Trigger. o Lập trình Java Web: Java Core – Java SE 8 (Basic concepts: control-flow, keyword…Classes and Objects; OOP; String, static, Collections, Java IO, Concurrency, Lambda Expressions, Exceptions; JDBC); Thiết kế web với HTML5/ CSS3/ Bootstrap 4, JS, jQuery, AJAX. JSP/Servlet Basics, Exception Handling, Mô hình MVC; Hibernate (Configuration; Hibernate Mapping; Queries and Criteria; Performance; Stored Procedure); Sử dụng thành thạo Spring Framework (Spring core: Spring MVC; XML, Javabase, Annotation; Spring Data JPA; Spring); Build Tools: Maven, Gradle. o Phát triển phần mềm theo quy trình chuyên nghiệp: Hiểu các bước thực hiện dự án, bao gồm thiết kế ứng dụng, làm GUI, thiết kế code, Thực hiện Code Review (using StyleCop, FXCop), Unit Test (Nunit), kiểm tra chất lượng dự án. Luyện tập kỹ năng code trong dự án với các chuyên gia công nghệ &amp; lập trình viên nhiều năm kinh nghiệm.Fresher Java Web Fullstack Developer</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>là sinh viên đãsắp tốt nghiệp chuyên ngành công nghệ thông tin toán tin khoa học máy tính kỹ thuật phần mềm điện tử viễn thông… hoặc các chuyên ngành có liên quan nắm vững kiến thức cơ bản về lập trình hướng đối tượng và java có thể tham gia đào tạolàm việc fulltime từ thứ 2 thứ 6 ham học hỏi máu lửa nhiệt huyết sẵn sàng chinh chiến đối đầu với thử thách khó khăn tại các dự án phần mềm lớn tuân thủ kỷ luật có trách nhiệm với công việc ưu tiên ứng viên có khả năng đọc hiểu tiếng anh tốt tham gia chương trình đào tạo tân binh đào tạo chuyên sâu trong vòng 3 tháng về java web để chuẩn bị các kiến thức và hoàn thiện kỹ năng trước khi tham gia vào dự án với các nội dung bao gồm o kiến thức về database mô hình quan hệ thực thể erm hệ quản trị cơ sở dữ liệu microsoft sql server hiểu và làm việc với truy vấn sql tsql statements advanced dml sql join index view sử dụng các đối tượng nâng cao database objects transactions stored procedure user defined function trigger o lập trình java web java core – java se 8 basic concepts controlflow keyword…classes and objects oop string static collections java io concurrency lambda expressions exceptions jdbc thiết kế web với html5 css3 bootstrap 4 js jquery ajax jspservlet basics exception handling mô hình mvc hibernate configuration hibernate mapping queries and criteria performance stored procedure sử dụng thành thạo spring framework spring core spring mvc xml javabase annotation spring data jpa spring build tools maven gradle o phát triển phần mềm theo quy trình chuyên nghiệp hiểu các bước thực hiện dự án bao gồm thiết kế ứng dụng làm gui thiết kế code thực hiện code review using stylecop fxcop unit test nunit kiểm tra chất lượng dự án luyện tập kỹ năng code trong dự án với các chuyên gia công nghệ lập trình viên nhiều năm kinh nghiệmfresher java web fullstack developer</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>là sinh_viên đãsắp tốt_nghiệp chuyên_ngành công_nghệ thông_tin toán tin khoa_học máy_tính kỹ_thuật phần_mềm điện_tử viễn_thông … hoặc các chuyên_ngành có liên_quan nắm vững kiến_thức cơ_bản về lập_trình hướng đối_tượng và java có_thể tham_gia đào tạolàm việc fulltime từ thứ 2 thứ 6 ham học_hỏi máu_lửa nhiệt_huyết sẵn_sàng chinh_chiến đối_đầu với thử_thách khó_khăn tại các dự_án phần_mềm lớn tuân_thủ kỷ_luật có trách_nhiệm với công_việc ưu_tiên ứng_viên có khả_năng đọc hiểu tiếng anh tốt tham_gia chương_trình đào_tạo tân_binh đào_tạo chuyên_sâu trong vòng 3 tháng về java web để chuẩn_bị các kiến_thức và hoàn_thiện kỹ_năng trước khi tham_gia vào dự_án với các nội_dung bao_gồm o kiến_thức về database mô_hình quan_hệ thực_thể erm hệ quản_trị cơ_sở dữ_liệu microsoft sql server hiểu và làm_việc với truy vấn sql tsql statements advanced dml sql join index view sử_dụng các đối_tượng nâng cao database objects transactions stored procedure user defined function trigger o lập_trình java web java core – java se 8 basic concepts controlflow keyword … classes and objects oop string static collections java io concurrency lambda expressions exceptions jdbc thiết_kế web với html5 css3 bootstrap 4 js jquery ajax jspservlet basics exception handling mô_hình mvc hibernate configuration hibernate mapping queries and criteria performance stored procedure sử_dụng thành_thạo spring framework spring core spring mvc xml javabase annotation spring data jpa spring build tools maven gradle o phát_triển phần_mềm theo quy_trình chuyên_nghiệp hiểu các bước thực_hiện dự_án bao_gồm thiết_kế ứng_dụng làm gui thiết_kế code thực_hiện code review using stylecop fxcop unit test nunit kiểm_tra chất_lượng dự_án luyện_tập kỹ_năng code trong dự_án với các chuyên_gia_công_nghệ lập_trình_viên nhiều năm kinh nghiệmfresher java web fullstack developer</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>sinh_viên đãsắp tốt_nghiệp chuyên_ngành công_nghệ thông_tin toán khoa_học máy_tính kỹ_thuật phần_mềm điện_tử viễn_thông chuyên_ngành liên_quan nắm vững kiến_thức cơ_bản lập_trình hướng đối_tượng java có_thể tham_gia đào tạolàm fulltime ham học_hỏi máu_lửa nhiệt_huyết sẵn_sàng chinh_chiến đối_đầu thử_thách khó_khăn dự_án phần_mềm tuân_thủ kỷ_luật trách_nhiệm công_việc ưu_tiên ứng_viên khả_năng đọc tiếng tham_gia chương_trình đào_tạo tân_binh đào_tạo chuyên_sâu vòng java web chuẩn_bị kiến_thức hoàn_thiện kỹ_năng tham_gia dự_án nội_dung bao_gồm o kiến_thức database mô_hình quan_hệ thực_thể erm hệ quản_trị cơ_sở dữ_liệu microsoft sql server làm_việc truy sql tsql statements advanced dml sql join index view sử_dụng đối_tượng nâng database objects transactions stored procedure user defined function trigger o lập_trình java web java core java se basic concepts controlflow keyword classes and objects oop string static collections java io concurrency lambda expressions exceptions jdbc thiết_kế web bootstrap js jquery ajax jspservlet basics exception handling mô_hình mvc hibernate configuration hibernate mapping queries and criteria performance stored procedure sử_dụng thành_thạo spring framework spring core spring mvc xml javabase annotation spring data jpa spring build tools maven gradle o phát_triển phần_mềm quy_trình chuyên_nghiệp thực_hiện dự_án bao_gồm thiết_kế ứng_dụng gui thiết_kế code thực_hiện code review using stylecop fxcop unit test nunit kiểm_tra chất_lượng dự_án luyện_tập kỹ_năng code dự_án chuyên_gia_công_nghệ lập_trình_viên kinh nghiệmfresher java web fullstack developer</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>6385c8643c4d036a0cccee1a</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Thành thạo Git, HTML, CSS, Javascript. Có hiểu biết tốt về Java Core và lập trình hướng đối tượng Có kiến thức về thiết kế hệ thống, DB, API Có khả năng làm việc độc lập và làm việc nhóm.Lập trình API cho web và app sử dụng Spring Boot Framework Thiết kế, xây dựng hệ thống xử lý logic, thao tác với cơ sở dữ liệu Phạm vi công việc từ làm rõ yêu cầu của khách hàng, viết tài liệu thiết kế hệ thống cho đến develop, testing, deploy và vận hành hệ thống cho khách hàng Phối hợp chặt chẽ với nhóm lập trình để công việc hoàn thành đúng thời hạn, thống nhất theo yêu cầu dự ánFresher Java Developer</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>thành thạo git html css javascript có hiểu biết tốt về java core và lập trình hướng đối tượng có kiến thức về thiết kế hệ thống db api có khả năng làm việc độc lập và làm việc nhómlập trình api cho web và app sử dụng spring boot framework thiết kế xây dựng hệ thống xử lý logic thao tác với cơ sở dữ liệu phạm vi công việc từ làm rõ yêu cầu của khách hàng viết tài liệu thiết kế hệ thống cho đến develop testing deploy và vận hành hệ thống cho khách hàng phối hợp chặt chẽ với nhóm lập trình để công việc hoàn thành đúng thời hạn thống nhất theo yêu cầu dự ánfresher java developer</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>thành_thạo git html css javascript có hiểu_biết tốt về java core và lập_trình hướng đối_tượng có kiến_thức về thiết_kế hệ_thống db api có khả_năng làm_việc độc_lập và làm_việc nhómlập trình api cho web và app sử_dụng spring boot framework thiết_kế xây_dựng hệ_thống xử_lý logic thao_tác với cơ_sở dữ_liệu phạm_vi công_việc từ làm rõ yêu_cầu của khách_hàng viết tài_liệu thiết_kế hệ_thống cho đến develop testing deploy và vận_hành hệ_thống cho khách_hàng phối_hợp chặt_chẽ với nhóm lập_trình để công_việc hoàn_thành đúng thời_hạn thống_nhất theo yêu_cầu dự ánfresher java developer</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>thành_thạo git html css javascript hiểu_biết java core lập_trình hướng đối_tượng kiến_thức thiết_kế hệ_thống db api khả_năng làm_việc độc_lập làm_việc nhómlập api web app sử_dụng spring boot framework thiết_kế xây_dựng hệ_thống xử_lý logic thao_tác cơ_sở dữ_liệu phạm_vi công_việc yêu_cầu khách_hàng viết tài_liệu thiết_kế hệ_thống develop testing deploy vận_hành hệ_thống khách_hàng phối_hợp chặt_chẽ lập_trình công_việc hoàn_thành thời_hạn thống_nhất yêu_cầu dự ánfresher java developer</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>6385c9083c4d036a0cccee1e</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Là sinh viên đã/sắp tốt nghiệp chuyên ngành Công nghệ thông tin, Toán tin, Khoa học máy tính, Kỹ thuật phần mềm, Điện tử viễn thông… hoặc các chuyên ngành có liên quan. Nắm vững kiến thức cơ bản về Lập trình hướng đối tượng và .Net. Có thể tham gia đào tạo/làm việc Full-time từ thứ 2 – thứ 6. Ham học hỏi, máu lửa, nhiệt huyết, sẵn sàng chinh chiến đối đầu với thử thách khó khăn tại các dự án phần mềm lớn. Tuân thủ kỷ luật &amp; có trách nhiệm với công việc. Ưu tiên ứng viên có khả năng đọc hiểu tiếng Anh tốt.Kiến thức về Database: Mô hình quan hệ thực thể (ERM). Hệ quản trị cơ sở dữ liệu Microsoft SQL Server – hiểu và làm việc với truy vấn SQL: T-SQL Statements, Advanced DML, SQL Join, Index, View., sử dụng các đối tượng nâng cao Database Objects: Transactions, Stored Procedure, User Defined Function, Trigger. Lập trình .NET : Variable/Constant, Data Type, Control of Flow…Lập trình hướng đối tượng với (OOP), LINQ. Sử dụng Collections/Generics, kết nối cơ sở dữ liệu (ADO.NET), làm việc với Winforms. Làm việc với IO, Exception và lập trình Concurrency. NET Technologies Web App: ASP.NET MVC và Thiết kế web với HTML, CSS, JS, jQuery, AJAX. Sử dụng Entity Framework Phát triển phần mềm theo quy trình chuyên nghiệp: Hiểu các bước thực hiện dự án, bao gồm thiết kế ứng dụng, làm GUI, thiết kế code, Thực hiện Code Review (using StyleCop, FXCop), Unit Test (Nunit), kiểm tra chất lượng dự án. Luyện tập kỹ năng code trong dự án với các chuyên gia công nghệ &amp; lập trình viên nhiều năm kinh nghiệm.Fresher .Net</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>là sinh viên đãsắp tốt nghiệp chuyên ngành công nghệ thông tin toán tin khoa học máy tính kỹ thuật phần mềm điện tử viễn thông… hoặc các chuyên ngành có liên quan nắm vững kiến thức cơ bản về lập trình hướng đối tượng và net có thể tham gia đào tạolàm việc fulltime từ thứ 2 – thứ 6 ham học hỏi máu lửa nhiệt huyết sẵn sàng chinh chiến đối đầu với thử thách khó khăn tại các dự án phần mềm lớn tuân thủ kỷ luật có trách nhiệm với công việc ưu tiên ứng viên có khả năng đọc hiểu tiếng anh tốtkiến thức về database mô hình quan hệ thực thể erm hệ quản trị cơ sở dữ liệu microsoft sql server – hiểu và làm việc với truy vấn sql tsql statements advanced dml sql join index view sử dụng các đối tượng nâng cao database objects transactions stored procedure user defined function trigger lập trình net variableconstant data type control of flow…lập trình hướng đối tượng với oop linq sử dụng collectionsgenerics kết nối cơ sở dữ liệu adonet làm việc với winforms làm việc với io exception và lập trình concurrency net technologies web app aspnet mvc và thiết kế web với html css js jquery ajax sử dụng entity framework phát triển phần mềm theo quy trình chuyên nghiệp hiểu các bước thực hiện dự án bao gồm thiết kế ứng dụng làm gui thiết kế code thực hiện code review using stylecop fxcop unit test nunit kiểm tra chất lượng dự án luyện tập kỹ năng code trong dự án với các chuyên gia công nghệ lập trình viên nhiều năm kinh nghiệmfresher net</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>là sinh_viên đãsắp tốt_nghiệp chuyên_ngành công_nghệ thông_tin toán tin khoa_học máy_tính kỹ_thuật phần_mềm điện_tử viễn_thông … hoặc các chuyên_ngành có liên_quan nắm vững kiến_thức cơ_bản về lập_trình hướng đối_tượng và net có_thể tham_gia đào tạolàm việc fulltime từ thứ 2 – thứ 6 ham học_hỏi máu_lửa nhiệt_huyết sẵn_sàng chinh_chiến đối_đầu với thử_thách khó_khăn tại các dự_án phần_mềm lớn tuân_thủ kỷ_luật có trách_nhiệm với công_việc ưu_tiên ứng_viên có khả_năng đọc hiểu tiếng anh tốtkiến thức về database mô_hình quan_hệ thực_thể erm hệ quản_trị cơ_sở dữ_liệu microsoft sql server – hiểu và làm_việc với truy vấn sql tsql statements advanced dml sql join index view sử_dụng các đối_tượng nâng cao database objects transactions stored procedure user defined function trigger lập_trình net variableconstant data type control of flow … lập_trình hướng đối_tượng với oop linq sử_dụng collectionsgenerics kết_nối cơ_sở dữ_liệu adonet làm_việc với winforms làm_việc với io exception và lập_trình concurrency net technologies web app aspnet mvc và thiết_kế web với html css js jquery ajax sử_dụng entity framework phát_triển phần_mềm theo quy_trình chuyên_nghiệp hiểu các bước thực_hiện dự_án bao_gồm thiết_kế ứng_dụng làm gui thiết_kế code thực_hiện code review using stylecop fxcop unit test nunit kiểm_tra chất_lượng dự_án luyện_tập kỹ_năng code trong dự_án với các chuyên_gia_công_nghệ lập_trình_viên nhiều năm kinh nghiệmfresher net</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>sinh_viên đãsắp tốt_nghiệp chuyên_ngành công_nghệ thông_tin toán khoa_học máy_tính kỹ_thuật phần_mềm điện_tử viễn_thông chuyên_ngành liên_quan nắm vững kiến_thức cơ_bản lập_trình hướng đối_tượng net có_thể tham_gia đào tạolàm fulltime ham học_hỏi máu_lửa nhiệt_huyết sẵn_sàng chinh_chiến đối_đầu thử_thách khó_khăn dự_án phần_mềm tuân_thủ kỷ_luật trách_nhiệm công_việc ưu_tiên ứng_viên khả_năng đọc tiếng tốtkiến thức database mô_hình quan_hệ thực_thể erm hệ quản_trị cơ_sở dữ_liệu microsoft sql server làm_việc truy sql tsql statements advanced dml sql join index view sử_dụng đối_tượng nâng database objects transactions stored procedure user defined function trigger lập_trình net variableconstant data type control of flow lập_trình hướng đối_tượng oop linq sử_dụng collectionsgenerics kết_nối cơ_sở dữ_liệu adonet làm_việc winforms làm_việc io exception lập_trình concurrency net technologies web app aspnet mvc thiết_kế web html css js jquery ajax sử_dụng entity framework phát_triển phần_mềm quy_trình chuyên_nghiệp thực_hiện dự_án bao_gồm thiết_kế ứng_dụng gui thiết_kế code thực_hiện code review using stylecop fxcop unit test nunit kiểm_tra chất_lượng dự_án luyện_tập kỹ_năng code dự_án chuyên_gia_công_nghệ lập_trình_viên kinh nghiệmfresher net</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>6385cae73c4d036a0cccee22</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>• Bằng Cao đẳng hoặc Cử nhân về Kỹ thuật phần mềm, Công nghệ thông tin hoặc chuyên ngành liên quan. • Có ít nhất 2 tháng hoặc dưới 1 năm kinh nghiệm phát triển .NET. • Muốn phát triển sự nghiệp trong lĩnh vực phát triển web. • Có kiến ​​thức về Lập trình hướng đối tượng (OOP). • Có kinh nghiệm làm dự án thực tế là một lợi thế. • Có khả năng sử dụng tiếng Anh. • Tư duy logic và tinh thần làm việc nhóm tốt. • Có khả năng học hỏi nhanh các công nghệ mới. • Chủ động, tự tổ chức tốt và có trách nhiệm trong công việc. • Có kinh nghiệm làm việc với HTML, CSS và Javascript. • Cần có kiến ​​thức về SQL và các ngôn ngữ thủ tục cơ sở dữ liệu. • Có kinh nghiệm làm dự án thực tế là một lợi thế. • Kiến thức vững chắc về Azure, JS framework (ReactJS, AngularJS hoặc VueJS) là một điểm cộng lớn.• Tham gia Chương trình NextGen Titan của chúng tôi với tư cách là Nhà phát triển .NET. • Các học viên sẽ được tham gia các dự án thực tế cũng như được hưởng các chế độ phúc lợi hấp dẫn. • Dưới sự hướng dẫn, bạn sẽ phát triển và khắc phục sự cố các ứng dụng web được viết bằng .NET. • Được đào tạo về Vòng đời phát triển phần mềm bởi các chuyên gia có kinh nghiệm và tay nghề cao. • Được đào tạo các kỹ năng mềm cần thiết.Fresher .Net Developer</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>• bằng cao đẳng hoặc cử nhân về kỹ thuật phần mềm công nghệ thông tin hoặc chuyên ngành liên quan • có ít nhất 2 tháng hoặc dưới 1 năm kinh nghiệm phát triển net • muốn phát triển sự nghiệp trong lĩnh vực phát triển web • có kiến ​​thức về lập trình hướng đối tượng oop • có kinh nghiệm làm dự án thực tế là một lợi thế • có khả năng sử dụng tiếng anh • tư duy logic và tinh thần làm việc nhóm tốt • có khả năng học hỏi nhanh các công nghệ mới • chủ động tự tổ chức tốt và có trách nhiệm trong công việc • có kinh nghiệm làm việc với html css và javascript • cần có kiến ​​thức về sql và các ngôn ngữ thủ tục cơ sở dữ liệu • có kinh nghiệm làm dự án thực tế là một lợi thế • kiến thức vững chắc về azure js framework reactjs angularjs hoặc vuejs là một điểm cộng lớn• tham gia chương trình nextgen titan của chúng tôi với tư cách là nhà phát triển net • các học viên sẽ được tham gia các dự án thực tế cũng như được hưởng các chế độ phúc lợi hấp dẫn • dưới sự hướng dẫn bạn sẽ phát triển và khắc phục sự cố các ứng dụng web được viết bằng net • được đào tạo về vòng đời phát triển phần mềm bởi các chuyên gia có kinh nghiệm và tay nghề cao • được đào tạo các kỹ năng mềm cần thiếtfresher net developer</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>• bằng cao_đẳng hoặc cử_nhân về kỹ_thuật phần_mềm công_nghệ thông_tin hoặc chuyên_ngành liên_quan • có ít_nhất 2 tháng hoặc dưới 1 năm kinh_nghiệm phát_triển net • muốn phát_triển sự_nghiệp trong lĩnh_vực phát_triển web • có kiến ​ ​ thức về lập_trình hướng đối_tượng oop • có kinh_nghiệm làm dự_án thực_tế là một lợi_thế • có khả_năng sử_dụng tiếng anh • tư_duy logic và tinh_thần làm_việc nhóm tốt • có khả_năng học_hỏi nhanh các công_nghệ mới • chủ_động tự tổ_chức tốt và có trách_nhiệm trong công_việc • có kinh_nghiệm làm_việc với html css và javascript • cần có kiến ​ ​ thức về sql và các ngôn_ngữ thủ_tục cơ_sở dữ_liệu • có kinh_nghiệm làm dự_án thực_tế là một lợi_thế • kiến_thức vững_chắc về azure js framework reactjs angularjs hoặc vuejs là một điểm cộng lớn • tham_gia chương_trình nextgen titan của chúng_tôi với tư_cách là nhà phát_triển net • các học_viên sẽ được tham_gia các dự_án thực_tế cũng như được hưởng các chế_độ phúc_lợi hấp_dẫn • dưới sự hướng_dẫn bạn sẽ phát_triển và khắc_phục sự_cố các ứng_dụng web được viết bằng net • được đào_tạo về vòng đời phát_triển phần_mềm bởi các chuyên_gia có kinh_nghiệm và tay_nghề cao • được đào_tạo các kỹ_năng mềm cần thiếtfresher net developer</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>cao_đẳng cử_nhân kỹ_thuật phần_mềm công_nghệ thông_tin chuyên_ngành liên_quan ít_nhất kinh_nghiệm phát_triển net phát_triển sự_nghiệp lĩnh_vực phát_triển web kiến thức lập_trình hướng đối_tượng oop kinh_nghiệm dự_án thực_tế lợi_thế khả_năng sử_dụng tiếng tư_duy logic tinh_thần làm_việc khả_năng học_hỏi công_nghệ chủ_động tổ_chức trách_nhiệm công_việc kinh_nghiệm làm_việc html css javascript kiến thức sql ngôn_ngữ thủ_tục cơ_sở dữ_liệu kinh_nghiệm dự_án thực_tế lợi_thế kiến_thức vững_chắc azure js framework reactjs angularjs vuejs cộng tham_gia chương_trình nextgen titan chúng_tôi tư_cách phát_triển net học_viên tham_gia dự_án thực_tế hưởng chế_độ phúc_lợi hấp_dẫn hướng_dẫn phát_triển khắc_phục sự_cố ứng_dụng web viết net đào_tạo vòng đời phát_triển phần_mềm chuyên_gia kinh_nghiệm tay_nghề đào_tạo kỹ_năng mềm thiếtfresher net developer</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>6385ce6a3c4d036a0cccee26</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>- Sinh viên năm cuối, sắp hoặc mới tốt nghiệp có thể làm việc Fulltime.
+- Có đam mê yêu thích học hỏi về lập trình, tìm hiểu công nghệ mới tốt.
+- Kiến thức tốt về cấu trúc dữ liệu, giải thuật.
+- Có kiến thức cơ bản về ngôn ngữ Nodejs.
+- Nắm được kiến thức và kĩ năng về JavaScript, ES6, Restful API
+- Khả năng đọc hiểu tài liệu tiếng Anh.- Tham gia Phát triển hệ thống ERP của công ty gồm các phân hệ: Quản lý nhân sự /Quản lý sản xuất, Kho hàng, Bán hàng, Giao hàng, Bảo hành trên 2 nền tảng web và mobile
+- Được tham gia đào tạo training, tìm hiểu về NodeJS
+- Tham gia các dự án thực tế trong thời gian đào tạo .
+- Hướng dẫn, hỗ trợ về lộ trình sự nghiệpFresher Nodejs</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>sinh viên năm cuối sắp hoặc mới tốt nghiệp có thể làm việc fulltime có đam mê yêu thích học hỏi về lập trình tìm hiểu công nghệ mới tốt kiến thức tốt về cấu trúc dữ liệu giải thuật có kiến thức cơ bản về ngôn ngữ nodejs nắm được kiến thức và kĩ năng về javascript es6 restful api khả năng đọc hiểu tài liệu tiếng anh tham gia phát triển hệ thống erp của công ty gồm các phân hệ quản lý nhân sự quản lý sản xuất kho hàng bán hàng giao hàng bảo hành trên 2 nền tảng web và mobile được tham gia đào tạo training tìm hiểu về nodejs tham gia các dự án thực tế trong thời gian đào tạo hướng dẫn hỗ trợ về lộ trình sự nghiệpfresher nodejs</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>sinh_viên năm cuối sắp hoặc mới tốt_nghiệp có_thể làm_việc fulltime có đam_mê yêu thích học_hỏi về lập_trình tìm_hiểu công_nghệ mới tốt kiến_thức tốt về cấu_trúc dữ_liệu giải_thuật có kiến_thức cơ_bản về ngôn_ngữ nodejs nắm được kiến_thức và kĩ_năng về javascript es6 restful api khả_năng đọc hiểu tài_liệu tiếng anh tham_gia phát_triển hệ_thống erp của công_ty gồm các phân hệ quản_lý nhân_sự quản_lý sản_xuất kho hàng bán hàng giao hàng bảo_hành trên 2 nền_tảng web và mobile được tham_gia đào_tạo training tìm_hiểu về nodejs tham_gia các dự_án thực_tế trong thời_gian đào_tạo hướng_dẫn hỗ_trợ về lộ_trình sự nghiệpfresher nodejs</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>sinh_viên tốt_nghiệp có_thể làm_việc fulltime đam_mê học_hỏi lập_trình tìm_hiểu công_nghệ kiến_thức cấu_trúc dữ_liệu giải_thuật kiến_thức cơ_bản ngôn_ngữ nodejs nắm kiến_thức kĩ_năng javascript restful api khả_năng đọc tài_liệu tiếng tham_gia phát_triển hệ_thống erp công_ty phân hệ quản_lý nhân_sự quản_lý sản_xuất kho hàng hàng giao hàng bảo_hành nền_tảng web mobile tham_gia đào_tạo training tìm_hiểu nodejs tham_gia dự_án thực_tế thời_gian đào_tạo hướng_dẫn hỗ_trợ lộ_trình nghiệpfresher nodejs</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>6385f91c0e84bfa5b8ca6e49</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>- Có từ 1-2 năm kinh nghiệm làm việc trên nền tảng WordPress, ngôn ngữ PHP- Tốt nghiệp đại học chuyên ngành công nghệ thông tin- Thành thạo HTML/Javascript/jQuery/CSS/AJAX, CMS Wordpress.- Kiến thức hệ quản trị cơ sở dữ liệu MySql.- Ưu tiên có kinh nghiệm tiếp xúc và làm việc với các nền tảng thiết kế website (các PHP framework như laravel, codeigniter; các CMS wordpress, joomla,..)- Có kiến thức cơ bản về asp.net- Có khả năng tư duy tốt, chủ động trong công việc, có tinh thần trách nhiệm cao hoàn thành tốt công việc được giao- Thiết kế website cho công ty khách hàng đối tác dựa trên file thiết kế có sẵn- Lập trình chức năng website theo yêu cầu- Chỉnh sửa các lỗi liên quan tới giao diện, chức năng website- Tham gia phát triển, tối ưu sản phẩm website để ngày càng chuẩn hoá và giảm thời gian thực hiện dự án, tối ưu chi phí triển khai.- Lập trình chỉnh sửa, tối ưu website theo các tiêu chuẩn của công ty- Kiểm tra và khắc phục khi website bị hack, nhiễm mã độc- Công việc khác được giao từ quản lýLập Trình Viên Wordpress</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>có từ 12 năm kinh nghiệm làm việc trên nền tảng wordpress ngôn ngữ php tốt nghiệp đại học chuyên ngành công nghệ thông tin thành thạo htmljavascriptjquerycssajax cms wordpress kiến thức hệ quản trị cơ sở dữ liệu mysql ưu tiên có kinh nghiệm tiếp xúc và làm việc với các nền tảng thiết kế website các php framework như laravel codeigniter các cms wordpress joomla có kiến thức cơ bản về aspnet có khả năng tư duy tốt chủ động trong công việc có tinh thần trách nhiệm cao hoàn thành tốt công việc được giao thiết kế website cho công ty khách hàng đối tác dựa trên file thiết kế có sẵn lập trình chức năng website theo yêu cầu chỉnh sửa các lỗi liên quan tới giao diện chức năng website tham gia phát triển tối ưu sản phẩm website để ngày càng chuẩn hoá và giảm thời gian thực hiện dự án tối ưu chi phí triển khai lập trình chỉnh sửa tối ưu website theo các tiêu chuẩn của công ty kiểm tra và khắc phục khi website bị hack nhiễm mã độc công việc khác được giao từ quản lýlập trình viên wordpress</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>có từ 12 năm kinh_nghiệm làm_việc trên nền_tảng_wordpress ngôn_ngữ php tốt_nghiệp đại_học chuyên_ngành công_nghệ thông_tin thành_thạo htmljavascriptjquerycssajax cms wordpress kiến_thức hệ quản_trị cơ_sở dữ_liệu mysql ưu_tiên có kinh_nghiệm tiếp_xúc và làm_việc với các nền_tảng thiết_kế website các php framework như laravel codeigniter các cms wordpress joomla có kiến_thức cơ_bản về aspnet có khả_năng tư_duy tốt chủ_động trong công_việc có tinh_thần trách_nhiệm cao hoàn_thành tốt công_việc được giao thiết_kế website cho công_ty khách_hàng đối_tác dựa trên file thiết_kế có sẵn lập_trình chức_năng website theo yêu_cầu chỉnh_sửa các lỗi liên_quan tới giao_diện chức_năng website tham_gia phát_triển tối_ưu sản_phẩm website để ngày_càng chuẩn_hoá và giảm thời_gian thực_hiện dự_án tối_ưu chi_phí triển_khai lập_trình chỉnh_sửa tối_ưu website theo các tiêu_chuẩn của công_ty kiểm_tra và khắc_phục khi website bị hack nhiễm mã độc công_việc khác được giao từ quản lýlập trình viên wordpress</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>kinh_nghiệm làm_việc nền_tảng_wordpress ngôn_ngữ php tốt_nghiệp đại_học chuyên_ngành công_nghệ thông_tin thành_thạo htmljavascriptjquerycssajax cms wordpress kiến_thức hệ quản_trị cơ_sở dữ_liệu mysql ưu_tiên kinh_nghiệm tiếp_xúc làm_việc nền_tảng thiết_kế website php framework laravel codeigniter cms wordpress joomla kiến_thức cơ_bản aspnet khả_năng tư_duy chủ_động công_việc tinh_thần trách_nhiệm hoàn_thành công_việc giao thiết_kế website công_ty khách_hàng đối_tác dựa file thiết_kế sẵn lập_trình chức_năng website yêu_cầu chỉnh_sửa lỗi liên_quan giao_diện chức_năng website tham_gia phát_triển tối_ưu sản_phẩm website ngày_càng chuẩn_hoá thời_gian thực_hiện dự_án tối_ưu chi_phí triển_khai lập_trình chỉnh_sửa tối_ưu website tiêu_chuẩn công_ty kiểm_tra khắc_phục website hack nhiễm mã độc công_việc giao quản lýlập viên wordpress</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>6385ff070e84bfa5b8ca6e4d</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>- PHP căn bản (PHP nâng cao MVC, OOP là 1 lợi thế)- Jquery, HTML/CSS căn bản- Biết sử dụng CMS wordpress theme và wordpress plugin- Hiểu và code được wordpress core theme- Mysql Database là 1 lợi thế.- Tư duy logic tốt.- Khả năng Research tốt- Thực hiện chuyển website từ HTML tĩnh sang website động bằng CMS Wordpress- Lập trình plugin tính năng theo yêu cầu phát sinh- Kết nối giữa CMS wordpress và phần mềm thông qua REST API- Triển khai các dự án, giải pháp thực tế cho khách hàng- Phát triển các tính năng, chức năng hay ho, thực tếLập Trình Viên PHP Wordpress</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>php căn bản php nâng cao mvc oop là 1 lợi thế jquery htmlcss căn bản biết sử dụng cms wordpress theme và wordpress plugin hiểu và code được wordpress core theme mysql database là 1 lợi thế tư duy logic tốt khả năng research tốt thực hiện chuyển website từ html tĩnh sang website động bằng cms wordpress lập trình plugin tính năng theo yêu cầu phát sinh kết nối giữa cms wordpress và phần mềm thông qua rest api triển khai các dự án giải pháp thực tế cho khách hàng phát triển các tính năng chức năng hay ho thực tếlập trình viên php wordpress</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>php căn_bản php nâng cao mvc oop là 1 lợi_thế jquery htmlcss căn_bản biết sử_dụng cms wordpress theme và wordpress plugin hiểu và code được wordpress core theme mysql database là 1 lợi_thế tư_duy logic tốt khả_năng research tốt thực_hiện chuyển website từ html tĩnh sang website động bằng cms wordpress lập_trình plugin tính_năng theo yêu_cầu phát_sinh kết_nối giữa cms wordpress và phần_mềm thông_qua rest api triển_khai các dự_án giải_pháp thực_tế cho khách_hàng phát_triển các tính_năng chức_năng hay_ho thực tếlập trình viên php wordpress</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>php căn_bản php nâng mvc oop lợi_thế jquery htmlcss căn_bản sử_dụng cms wordpress theme wordpress plugin code wordpress core theme mysql database lợi_thế tư_duy logic khả_năng research thực_hiện website html tĩnh website động cms wordpress lập_trình plugin tính_năng yêu_cầu phát_sinh kết_nối cms wordpress phần_mềm thông_qua rest api triển_khai dự_án giải_pháp thực_tế khách_hàng phát_triển tính_năng chức_năng hay_ho tếlập viên php wordpress</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>6385ffa00e84bfa5b8ca6e51</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Sinh viên năm cuối, sắp tốt nghiệp các ngành CNTT, Công nghệ phần mềm, Khoa học máy tính hoặc các ngành khác có liên quan.Nắm vững kiến thức và đã từng làm qua các dự án sử dụng ngôn ngữ .NET.Có thể làm việc fulltime.Tiếng anh khá.Tham gia vào quá trình triển khai, vận hành dự án lập trình.Hoàn thành các bài tập, khóa học cá nhân theo yêu cầu của mentor.Thực hiện các công việc khác dưới sự chỉ đạo của PM.Thực Tập Sinh Net</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>sinh viên năm cuối sắp tốt nghiệp các ngành cntt công nghệ phần mềm khoa học máy tính hoặc các ngành khác có liên quannắm vững kiến thức và đã từng làm qua các dự án sử dụng ngôn ngữ netcó thể làm việc fulltimetiếng anh khátham gia vào quá trình triển khai vận hành dự án lập trìnhhoàn thành các bài tập khóa học cá nhân theo yêu cầu của mentorthực hiện các công việc khác dưới sự chỉ đạo của pmthực tập sinh net</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>sinh_viên năm cuối sắp tốt_nghiệp các ngành cntt công_nghệ phần_mềm khoa_học máy_tính hoặc các ngành khác có liên quannắm vững kiến_thức và đã từng làm qua các dự_án sử_dụng ngôn_ngữ netcó thể làm_việc fulltimetiếng anh khátham gia vào quá_trình triển_khai vận_hành dự_án lập trìnhhoàn thành các bài_tập khóa học cá_nhân theo yêu_cầu của mentorthực hiện các công_việc khác dưới sự chỉ_đạo của pmthực tập sinh net</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>sinh_viên tốt_nghiệp ngành cntt công_nghệ phần_mềm khoa_học máy_tính ngành quannắm vững kiến_thức dự_án sử_dụng ngôn_ngữ netcó làm_việc fulltimetiếng khátham gia quá_trình triển_khai vận_hành dự_án trìnhhoàn bài_tập khóa học cá_nhân yêu_cầu mentorthực công_việc chỉ_đạo pmthực net</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>6385fff50e84bfa5b8ca6e55</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>- Tốt nghiệp Đại học/Cao đẳng chuyên ngành CNTT, ĐTVT;- Từ 1 năm kinh nghiệm trở lên- Thành thạo: ASP.NET MVC hoặc .NET Core- Có kiến thức về Microservices là một lợi thế- Có kinh nghiệm làm việc với CSS, HTML, JavaScript, jQuery, AJAX.- Có kinh nghiệm làm việc MSSQL, sử dụng stored procedure.- Hiểu biết React JS, React Native là một lợi thế- Có kinh nghiệm làm các dự án về phần mềm quản lý- Tham gia phát triển sản phẩm của công ty CRM, MES.- Tham gia quá trình nghiên cứu công nghệ, phát triển tính năng và triển khai các sản phẩm với khách hàng là doanh nghiệp lớn trong nước- Bảo hành, bảo trì sản phẩm.- Quản lý task hằng ngày, báo cáo công việc với cấp trên.Backend .Net Developer</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>tốt nghiệp đại họccao đẳng chuyên ngành cntt đtvt từ 1 năm kinh nghiệm trở lên thành thạo aspnet mvc hoặc net core có kiến thức về microservices là một lợi thế có kinh nghiệm làm việc với css html javascript jquery ajax có kinh nghiệm làm việc mssql sử dụng stored procedure hiểu biết react js react native là một lợi thế có kinh nghiệm làm các dự án về phần mềm quản lý tham gia phát triển sản phẩm của công ty crm mes tham gia quá trình nghiên cứu công nghệ phát triển tính năng và triển khai các sản phẩm với khách hàng là doanh nghiệp lớn trong nước bảo hành bảo trì sản phẩm quản lý task hằng ngày báo cáo công việc với cấp trênbackend net developer</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>tốt_nghiệp đại họccao đẳng chuyên_ngành cntt đtvt từ 1 năm kinh_nghiệm trở lên thành_thạo aspnet mvc hoặc net core có kiến_thức về microservices là một lợi_thế có kinh_nghiệm làm_việc với css html javascript jquery ajax có kinh_nghiệm làm_việc mssql sử_dụng stored procedure hiểu_biết react js react native là một lợi_thế có kinh_nghiệm làm các dự_án về phần_mềm quản_lý tham_gia phát_triển sản_phẩm của công_ty crm mes tham_gia quá_trình nghiên_cứu công_nghệ phát_triển tính_năng và triển_khai các sản_phẩm với khách_hàng là doanh_nghiệp lớn trong nước bảo_hành bảo_trì sản_phẩm quản_lý task hằng ngày báo_cáo công_việc với cấp trênbackend net developer</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>tốt_nghiệp họccao đẳng chuyên_ngành cntt đtvt kinh_nghiệm thành_thạo aspnet mvc net core kiến_thức microservices lợi_thế kinh_nghiệm làm_việc css html javascript jquery ajax kinh_nghiệm làm_việc mssql sử_dụng stored procedure hiểu_biết react js react native lợi_thế kinh_nghiệm dự_án phần_mềm quản_lý tham_gia phát_triển sản_phẩm công_ty crm mes tham_gia quá_trình nghiên_cứu công_nghệ phát_triển tính_năng triển_khai sản_phẩm khách_hàng doanh_nghiệp bảo_hành bảo_trì sản_phẩm quản_lý task hằng báo_cáo công_việc trênbackend net developer</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>638600660e84bfa5b8ca6e59</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Làm việc hiệu quả với React, html, css, js, jQuery, ajax,...Thành thạo về responsive, đảm bảo hiển thị trên mọi trình duyệt.Thuần thục về RESTFUL API, GraphQL.Thành thạo về responsive, đảm bảo hiển thị trên mọi trình duyệt.Hiểu biết và có kinh nghiệm về Design Pattern là lợi thế lớn.Biết làm việc với AMP để tối ưu giao diện trên mobile, biết cách tối ưu hiệu quả website với google speed insight là một lợi thế..Hiểu biết về SEO là một lợi thế.Phát triển và bảo trì các dự án, tính năng hệ thống CRM của công ty trên nền tảng công nghệ ReactJS.Nghiệp vụ gồm có: quản lý user, khách hàng, đơn hàng, công ty, các quy trình nhập dữ liệu với khách hàng và nhân viên,...Phát triển website đa ngôn ngữ, nội dung đa dạng.Tối ưu tốc độ tải website.Frontend Developer (React)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>làm việc hiệu quả với react html css js jquery ajaxthành thạo về responsive đảm bảo hiển thị trên mọi trình duyệtthuần thục về restful api graphqlthành thạo về responsive đảm bảo hiển thị trên mọi trình duyệthiểu biết và có kinh nghiệm về design pattern là lợi thế lớnbiết làm việc với amp để tối ưu giao diện trên mobile biết cách tối ưu hiệu quả website với google speed insight là một lợi thếhiểu biết về seo là một lợi thếphát triển và bảo trì các dự án tính năng hệ thống crm của công ty trên nền tảng công nghệ reactjsnghiệp vụ gồm có quản lý user khách hàng đơn hàng công ty các quy trình nhập dữ liệu với khách hàng và nhân viênphát triển website đa ngôn ngữ nội dung đa dạngtối ưu tốc độ tải websitefrontend developer react</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>làm_việc hiệu_quả với react html css js jquery ajaxthành thạo về responsive đảm_bảo hiển_thị trên mọi trình duyệtthuần thục về restful api graphqlthành thạo về responsive đảm_bảo hiển_thị trên mọi trình duyệthiểu biết và có kinh_nghiệm về design pattern là lợi_thế lớnbiết làm_việc với amp để tối_ưu giao_diện trên mobile biết cách tối_ưu hiệu_quả website với google speed insight là một lợi thếhiểu biết về seo là một lợi thếphát triển và bảo_trì các dự_án tính_năng hệ_thống crm của công_ty trên nền_tảng công_nghệ reactjsnghiệp vụ gồm có quản_lý user khách_hàng đơn hàng công_ty các quy_trình nhập dữ_liệu với khách_hàng và nhân viênphát triển website_đa_ngôn_ngữ nội_dung đa dạngtối ưu tốc_độ tải websitefrontend developer react</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>làm_việc hiệu_quả react html css js jquery ajaxthành thạo responsive đảm_bảo hiển_thị duyệtthuần restful api graphqlthành thạo responsive đảm_bảo hiển_thị duyệthiểu kinh_nghiệm design pattern lợi_thế lớnbiết làm_việc amp tối_ưu giao_diện mobile tối_ưu hiệu_quả website google speed insight lợi thếhiểu seo lợi thếphát triển bảo_trì dự_án tính_năng hệ_thống crm công_ty nền_tảng công_nghệ reactjsnghiệp vụ quản_lý user khách_hàng hàng công_ty quy_trình nhập dữ_liệu khách_hàng viênphát triển website_đa_ngôn_ngữ nội_dung đa dạngtối ưu tốc_độ tải websitefrontend developer react</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>638cc894a8cae821625b4f65</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">- Yêu cầu bằng cử nhân (ưu tiên ngành Khoa học máy tính)- Có ít nhất 2 năm kinh nghiệm kỹ thuật và kiến ​​thức về Java/ J2EE/ Spring Framework- Phải có chuyên môn vững chắc với kinh nghiệm thiết kế, kiến ​​trúc và phát triển ứng dụng Java/J2EE như Spring- Có kinh nghiệm về nền tảng DEV MI là một lợi thế- Có ít nhất 2 năm kinh nghiệm về Oracle DBMS- Hiểu biết về Security và có thể triển khai Security code- Thiết kế, triển khai và bảo trì các thành phần phần mềm trong các hệ thống phân tán, phức tạp;- Phối hợp chặt chẽ với các nhóm khác (QA, Hỗ trợ kỹ thuật) để chẩn đoán và giải quyết các lỗi phần mềm một cách hiệu quả;- Tham gia vào các hoạt động thiết kế hợp tác nhóm và đánh giá mã;- Sắp xếp thứ tự ưu tiên các nhiệm vụ và liên lạc với các ước tính nỗ lực quản lý cấp cao và tình trạng dự án theo định kỳ.Java Developer </t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>yêu cầu bằng cử nhân ưu tiên ngành khoa học máy tính có ít nhất 2 năm kinh nghiệm kỹ thuật và kiến ​​thức về java j2ee spring framework phải có chuyên môn vững chắc với kinh nghiệm thiết kế kiến ​​trúc và phát triển ứng dụng javaj2ee như spring có kinh nghiệm về nền tảng dev mi là một lợi thế có ít nhất 2 năm kinh nghiệm về oracle dbms hiểu biết về security và có thể triển khai security code thiết kế triển khai và bảo trì các thành phần phần mềm trong các hệ thống phân tán phức tạp phối hợp chặt chẽ với các nhóm khác qa hỗ trợ kỹ thuật để chẩn đoán và giải quyết các lỗi phần mềm một cách hiệu quả tham gia vào các hoạt động thiết kế hợp tác nhóm và đánh giá mã sắp xếp thứ tự ưu tiên các nhiệm vụ và liên lạc với các ước tính nỗ lực quản lý cấp cao và tình trạng dự án theo định kỳjava developer</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>yêu_cầu bằng cử_nhân ưu_tiên ngành khoa_học máy_tính có ít_nhất 2 năm kinh_nghiệm kỹ_thuật và kiến ​ ​ thức về java j2ee spring framework phải có chuyên_môn vững_chắc với kinh_nghiệm thiết_kế kiến ​ ​ trúc và phát_triển ứng_dụng javaj2ee như spring có kinh_nghiệm về nền_tảng dev mi là một lợi_thế có ít_nhất 2 năm kinh_nghiệm về oracle dbms hiểu_biết về security và có_thể triển_khai security code thiết_kế triển_khai và bảo_trì các thành_phần phần_mềm trong các hệ_thống phân_tán phức_tạp phối_hợp chặt_chẽ với các nhóm khác qa hỗ_trợ kỹ_thuật để chẩn_đoán và giải_quyết các lỗi phần_mềm một_cách hiệu_quả tham_gia vào các hoạt_động thiết_kế hợp_tác nhóm và đánh_giá mã sắp_xếp thứ tự ưu_tiên các nhiệm_vụ và liên_lạc với các ước_tính nỗ_lực quản_lý cấp cao và tình_trạng dự_án theo định kỳjava developer</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>yêu_cầu cử_nhân ưu_tiên ngành khoa_học máy_tính ít_nhất kinh_nghiệm kỹ_thuật kiến thức java spring framework chuyên_môn vững_chắc kinh_nghiệm thiết_kế kiến trúc phát_triển ứng_dụng spring kinh_nghiệm nền_tảng dev mi lợi_thế ít_nhất kinh_nghiệm oracle dbms hiểu_biết security có_thể triển_khai security code thiết_kế triển_khai bảo_trì thành_phần phần_mềm hệ_thống phân_tán phức_tạp phối_hợp chặt_chẽ qa hỗ_trợ kỹ_thuật chẩn_đoán giải_quyết lỗi phần_mềm một_cách hiệu_quả tham_gia hoạt_động thiết_kế hợp_tác đánh_giá mã sắp_xếp ưu_tiên nhiệm_vụ liên_lạc ước_tính nỗ_lực quản_lý tình_trạng dự_án kỳjava developer</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>638cc911a8cae821625b4f69</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">- Có trên 1 năm kinh nghiệm phát triển ứng dụng đa nền tảng với React Native- Có nền tảng vững chắc về Javascript ES6, Redux, Redux saga hoặc Redux Thunk.- Có kinh nghiệm phát triển ứng dụng di động bằng một trong các ngôn ngữ Swift, Object C (Trên iOS), Java (Trên Android), Flutter là 1 lợi thế- Có hiểu biết và kỹ năng cơ bản về lập trình hướng đối tượng- Biết sử dụng tool quản lý source (Git hoặc SVN).- Khả năng tự quản lý tốt và trách nhiệm cao.- Có thể giao tiếp, làm việc nhóm tốt- Tham gia phát triển các ứng dụng Mobile (iOS, Android) hằng Native, React Native hoặc Flutter- Tập trung vào hiệu suất và chất lượng ứng dụng, hoàn thiện trải nghiệm người dùng (UX)- Xây dựng và tối ưu hóa các thông số kỹ thuật và tiêu chuẩn của quá trình phát triển, và cải thiện quy trình phát triển.- Nghiên cứu và phân tích các giải pháp kỹ thuật, và đánh giá việc giới thiệu và thúc đẩy các công nghệ mới, và giải quyết các vấn đề kỹ thuật trong việc thực hiện cụ thể;- Tham gia xây dựng nền tảng- Có thể đảm trách vị trí head of mobile team nếu có đủ kỹ năng và kinh nghiệmMobile Developer </t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>có trên 1 năm kinh nghiệm phát triển ứng dụng đa nền tảng với react native có nền tảng vững chắc về javascript es6 redux redux saga hoặc redux thunk có kinh nghiệm phát triển ứng dụng di động bằng một trong các ngôn ngữ swift object c trên ios java trên android flutter là 1 lợi thế có hiểu biết và kỹ năng cơ bản về lập trình hướng đối tượng biết sử dụng tool quản lý source git hoặc svn khả năng tự quản lý tốt và trách nhiệm cao có thể giao tiếp làm việc nhóm tốt tham gia phát triển các ứng dụng mobile ios android hằng native react native hoặc flutter tập trung vào hiệu suất và chất lượng ứng dụng hoàn thiện trải nghiệm người dùng ux xây dựng và tối ưu hóa các thông số kỹ thuật và tiêu chuẩn của quá trình phát triển và cải thiện quy trình phát triển nghiên cứu và phân tích các giải pháp kỹ thuật và đánh giá việc giới thiệu và thúc đẩy các công nghệ mới và giải quyết các vấn đề kỹ thuật trong việc thực hiện cụ thể tham gia xây dựng nền tảng có thể đảm trách vị trí head of mobile team nếu có đủ kỹ năng và kinh nghiệmmobile developer</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>có trên 1 năm kinh_nghiệm phát_triển ứng_dụng đa nền_tảng với react native có nền_tảng vững_chắc về javascript es6 redux redux saga hoặc redux thunk có kinh_nghiệm phát_triển ứng_dụng di_động bằng một trong các ngôn_ngữ swift object c trên ios java trên android flutter là 1 lợi_thế có hiểu_biết và kỹ_năng cơ_bản về lập_trình hướng đối_tượng biết sử_dụng tool quản_lý source git hoặc svn khả_năng tự_quản_lý tốt và trách_nhiệm cao có_thể giao_tiếp làm_việc nhóm tốt tham_gia phát_triển các ứng_dụng mobile ios android hằng native react native hoặc flutter tập_trung vào hiệu_suất và chất_lượng ứng_dụng hoàn_thiện trải nghiệm người dùng ux xây_dựng và tối_ưu_hóa các thông_số kỹ_thuật và tiêu_chuẩn của quá_trình phát_triển và cải_thiện quy_trình phát_triển nghiên_cứu và phân_tích các giải_pháp kỹ_thuật và đánh_giá việc giới_thiệu và thúc_đẩy các công_nghệ mới và giải_quyết các vấn_đề kỹ_thuật trong việc thực_hiện cụ_thể tham_gia xây_dựng nền_tảng có_thể đảm_trách vị_trí head of mobile team nếu có đủ kỹ_năng và kinh nghiệmmobile developer</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>kinh_nghiệm phát_triển ứng_dụng đa nền_tảng react native nền_tảng vững_chắc javascript redux redux saga redux thunk kinh_nghiệm phát_triển ứng_dụng di_động ngôn_ngữ swift object c ios java android flutter lợi_thế hiểu_biết kỹ_năng cơ_bản lập_trình hướng đối_tượng sử_dụng tool quản_lý source git svn khả_năng tự_quản_lý trách_nhiệm có_thể giao_tiếp làm_việc tham_gia phát_triển ứng_dụng mobile ios android hằng native react native flutter tập_trung hiệu_suất chất_lượng ứng_dụng hoàn_thiện trải nghiệm ux xây_dựng tối_ưu_hóa thông_số kỹ_thuật tiêu_chuẩn quá_trình phát_triển cải_thiện quy_trình phát_triển nghiên_cứu phân_tích giải_pháp kỹ_thuật đánh_giá giới_thiệu thúc_đẩy công_nghệ giải_quyết vấn_đề kỹ_thuật thực_hiện cụ_thể tham_gia xây_dựng nền_tảng có_thể đảm_trách vị_trí head of mobile team kỹ_năng kinh nghiệmmobile developer</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>638cc961a8cae821625b4f6d</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Yêu cầu:
+•    Có từ 1 năm kinh nghiệm trở lên và kỹ năng dự án thực tế với lập trình ứng dụng di động với React Native.
+•    Có ứng dụng trên Apple store hoặc google play là một lợi thế
+•    Thành thạo TypeScript 
+•    Có kiến thức một trong những ngôn ngữ lập trình Swift, Objective-C, Java, kotlin sẽ là lợi thế
+•    Có kỹ năng sử dụng một trong số các công cụ hỗ trợ quản lý mã nguồn và quản lý tiến trình công việc.
+•    Nhiệt tình, ham học hỏi, mong muốn cầu tiến.
+•    Chủ động nâng cao trình độ, sáng tạo; kỹ năng giao tiếp cũng như xử lý tình huống tốt sẽ giúp bạn nắm bắt cơ hội tốt hơn.Mô tả công việc:
+•     Xây dựng các ứng dụng di động cho các dự án quản trị nội bộ như nhân viên, kho hàng , kế toán, vận tải, xuất nhập khẩu và các phần mềm liên quan đến ngành nghề giao nhận vận tải và duy trì các ứng dụng di động hiện có của công ty (iOS &amp; Android) bằng ReactNative 
+•    Hợp tác với các thành viên khác như Backend, Product Designer, QA / QC, ... để đảm bảo chất lượng của sản phẩm.
+•    Phân tích các yêu cầu, thiết kế và phát triển các chức năng dựa trên các yêu cầu của sản phẩm;
+•    Tiếp tục tối ưu hóa sản phẩm và quy trình phát triển, xác định và khắc phục các vấn đề, cải thiện tính ổn định và tính khả dụng của sản phẩm.
+•    Thực hiện các công việc liên quan theo chỉ đạo từ cấp trênĐịa điểm: Tòa nhà Hải Âu, 39B Trường Sơn, Phường 4, Quận Tân Bình, TP HCMThời gian: 08h00-17h30 thứ 2 đến hết sáng thứ 7Mobile Developer - React Native</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>yêu cầu • có từ 1 năm kinh nghiệm trở lên và kỹ năng dự án thực tế với lập trình ứng dụng di động với react native • có ứng dụng trên apple store hoặc google play là một lợi thế • thành thạo typescript • có kiến thức một trong những ngôn ngữ lập trình swift objectivec java kotlin sẽ là lợi thế • có kỹ năng sử dụng một trong số các công cụ hỗ trợ quản lý mã nguồn và quản lý tiến trình công việc • nhiệt tình ham học hỏi mong muốn cầu tiến • chủ động nâng cao trình độ sáng tạo kỹ năng giao tiếp cũng như xử lý tình huống tốt sẽ giúp bạn nắm bắt cơ hội tốt hơnmô tả công việc • xây dựng các ứng dụng di động cho các dự án quản trị nội bộ như nhân viên kho hàng kế toán vận tải xuất nhập khẩu và các phần mềm liên quan đến ngành nghề giao nhận vận tải và duy trì các ứng dụng di động hiện có của công ty ios android bằng reactnative • hợp tác với các thành viên khác như backend product designer qa qc để đảm bảo chất lượng của sản phẩm • phân tích các yêu cầu thiết kế và phát triển các chức năng dựa trên các yêu cầu của sản phẩm • tiếp tục tối ưu hóa sản phẩm và quy trình phát triển xác định và khắc phục các vấn đề cải thiện tính ổn định và tính khả dụng của sản phẩm • thực hiện các công việc liên quan theo chỉ đạo từ cấp trênđịa điểm tòa nhà hải âu 39b trường sơn phường 4 quận tân bình tp hcmthời gian 08h0017h30 thứ 2 đến hết sáng thứ 7mobile developer react native</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>yêu_cầu • có từ 1 năm kinh_nghiệm trở lên và kỹ_năng dự_án thực_tế với lập_trình ứng_dụng di_động với react native • có ứng_dụng trên apple store hoặc google play là một lợi_thế • thành_thạo typescript • có kiến_thức một trong những ngôn_ngữ lập_trình swift objectivec java kotlin sẽ là lợi_thế • có kỹ_năng sử_dụng một trong số các công_cụ hỗ_trợ quản_lý mã nguồn và quản_lý tiến_trình công_việc • nhiệt_tình ham học_hỏi mong_muốn cầu tiến • chủ_động nâng cao_trình_độ sáng_tạo kỹ_năng giao_tiếp cũng như xử_lý tình_huống tốt sẽ giúp bạn nắm_bắt cơ_hội tốt hơnmô tả công_việc • xây_dựng các ứng_dụng di_động cho các dự_án quản_trị nội_bộ như nhân_viên kho hàng kế_toán vận_tải xuất nhập_khẩu và các phần_mềm liên_quan đến ngành_nghề giao_nhận vận_tải và duy_trì các ứng_dụng di_động hiện có của công_ty ios android bằng reactnative • hợp_tác với các thành_viên khác như backend product designer qa qc để đảm_bảo chất_lượng của sản_phẩm • phân_tích các yêu_cầu thiết_kế và phát_triển các chức_năng dựa trên các yêu_cầu của sản_phẩm • tiếp_tục tối_ưu_hóa sản_phẩm và quy_trình phát_triển xác_định và khắc_phục các vấn_đề cải_thiện tính ổn_định và tính khả_dụng của sản_phẩm • thực_hiện các công_việc liên_quan theo chỉ_đạo từ cấp trênđịa điểm tòa nhà hải_âu 39b trường sơn phường 4 quận tân bình tp hcmthời gian 08h0017h30 thứ 2 đến hết sáng thứ 7mobile developer react native</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>yêu_cầu kinh_nghiệm kỹ_năng dự_án thực_tế lập_trình ứng_dụng di_động react native ứng_dụng apple store google play lợi_thế thành_thạo typescript kiến_thức ngôn_ngữ lập_trình swift objectivec java kotlin lợi_thế kỹ_năng sử_dụng công_cụ hỗ_trợ quản_lý mã quản_lý tiến_trình công_việc nhiệt_tình ham học_hỏi mong_muốn tiến chủ_động nâng cao_trình_độ sáng_tạo kỹ_năng giao_tiếp xử_lý tình_huống giúp nắm_bắt cơ_hội hơnmô công_việc xây_dựng ứng_dụng di_động dự_án quản_trị nội_bộ nhân_viên kho hàng kế_toán vận_tải nhập_khẩu phần_mềm liên_quan ngành_nghề giao_nhận vận_tải duy_trì ứng_dụng di_động công_ty ios android reactnative hợp_tác thành_viên backend product designer qa qc đảm_bảo chất_lượng sản_phẩm phân_tích yêu_cầu thiết_kế phát_triển chức_năng dựa yêu_cầu sản_phẩm tiếp_tục tối_ưu_hóa sản_phẩm quy_trình phát_triển xác_định khắc_phục vấn_đề cải_thiện ổn_định khả_dụng sản_phẩm thực_hiện công_việc liên_quan chỉ_đạo trênđịa tòa hải_âu trường sơn phường tân bình tp hcmthời developer react native</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>638cc9d7a8cae821625b4f71</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Tốt nghiệp Đại Học hoặc Cao Đẳng trở lên các chuyên nghành Công nghệ thông tin.Có 1 năm kinh nghiệm làm với Flutter hoặc tối thiểu 1 năm kinh nghiệm làm với Android.Có kinh nghiệm về handle với Restful API (Back - end), dùng third - party libraries.Có kiến thức tốt về OOP, Data Structures, Algorithm, tối ưu hóa hiệu suất ứng dụng Flutter.Kĩ năng giải quyết vấn đề trong công việc.Chủ động giao tiếp, giao lưu với các members trong công việc.Thành thạo về hệ thống quản lý source code Git.Lập trình ứng dụng di động bằng Flutter/Android Kotlin cùng đội dự án và phân bổ công việc của PM/TL.Phát triển chuyên sâu dần về công nghệ mobile và Front nói chung.Tối ưu trải nghiệm người dùng, tập trung vào tốc độ xử lý trên mobile.Tìm hiểu các framework mới, ứng dụng vào App đang phát triển.Tuân thủ quy trình và task được giao bởi leader.Mobile Developer - React Native</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>tốt nghiệp đại học hoặc cao đẳng trở lên các chuyên nghành công nghệ thông tincó 1 năm kinh nghiệm làm với flutter hoặc tối thiểu 1 năm kinh nghiệm làm với androidcó kinh nghiệm về handle với restful api back end dùng third party librariescó kiến thức tốt về oop data structures algorithm tối ưu hóa hiệu suất ứng dụng flutterkĩ năng giải quyết vấn đề trong công việcchủ động giao tiếp giao lưu với các members trong công việcthành thạo về hệ thống quản lý source code gitlập trình ứng dụng di động bằng flutterandroid kotlin cùng đội dự án và phân bổ công việc của pmtlphát triển chuyên sâu dần về công nghệ mobile và front nói chungtối ưu trải nghiệm người dùng tập trung vào tốc độ xử lý trên mobiletìm hiểu các framework mới ứng dụng vào app đang phát triểntuân thủ quy trình và task được giao bởi leadermobile developer react native</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>tốt_nghiệp đại_học hoặc cao_đẳng trở lên các chuyên nghành công_nghệ thông tincó 1 năm kinh_nghiệm làm với flutter hoặc tối_thiểu 1 năm kinh_nghiệm làm với androidcó kinh_nghiệm về handle với restful api back end dùng third party librariescó kiến_thức tốt về oop data structures algorithm tối_ưu_hóa hiệu_suất ứng_dụng flutterkĩ năng giải_quyết vấn_đề trong công việcchủ động giao_tiếp giao_lưu với các members trong công việcthành thạo về hệ_thống quản_lý source code gitlập trình ứng_dụng di_động bằng flutterandroid kotlin cùng đội dự_án và phân_bổ công_việc của pmtlphát triển chuyên_sâu dần về công_nghệ mobile và front nói chungtối ưu trải nghiệm người dùng tập_trung vào tốc_độ xử_lý trên mobiletìm hiểu các framework mới ứng_dụng vào app đang phát triểntuân thủ quy_trình và task được giao bởi leadermobile developer react native</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>tốt_nghiệp đại_học cao_đẳng chuyên nghành công_nghệ thông tincó kinh_nghiệm flutter tối_thiểu kinh_nghiệm androidcó kinh_nghiệm handle restful api back end third party librariescó kiến_thức oop data structures algorithm tối_ưu_hóa hiệu_suất ứng_dụng flutterkĩ năng giải_quyết vấn_đề việcchủ động giao_tiếp giao_lưu members việcthành thạo hệ_thống quản_lý source code gitlập ứng_dụng di_động flutterandroid kotlin đội dự_án phân_bổ công_việc pmtlphát triển chuyên_sâu công_nghệ mobile front chungtối ưu trải nghiệm tập_trung tốc_độ xử_lý mobiletìm framework ứng_dụng app phát triểntuân thủ quy_trình task giao leadermobile developer react native</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>638cca6ca8cae821625b4f75</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Có kiến thức chuyên ngành Lập trình /Công nghệ thông tin/Khoa học máy tínhAm hiểu các ngôn ngữ JavaScript/TypeScript/NodeJS, có kinh nghiệm làm việc với MongoDB, Google Cloud Firebase (Authentication, Realtime Database, Functions). Ngoài ra có kiến thức lập trình hướng đối tượng OOP như Java/C# là một lợi thế.Nắm vững kiến thức lập trình, cấu trúc dữ liệu và giải thuậtƯu tiên ứng viên: đã từng có kinh nghiệm xây dựng ứng dụng back-end ServerKỹ năng research xử lý các vấn đề, khả năng thích ứng nhanh với công việc, với các kỹ thuật mớiKhả năng làm việc độc lập và làm việc nhómTinh thần học hỏi và nâng cao trình độ bản thân, tinh thần trách nhiệm trong công việcXây dựng phát triển các tính năng mới trên ứng dụng back-end serverDebug và khắc phục các sự cố gặp phải trong ứng dụngNghiên cứu các công nghệ, kỹ thuật mới, thực hiện các nhiệm vụ khác được giaoNodejs Developer</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>có kiến thức chuyên ngành lập trình công nghệ thông tinkhoa học máy tínham hiểu các ngôn ngữ javascripttypescriptnodejs có kinh nghiệm làm việc với mongodb google cloud firebase authentication realtime database functions ngoài ra có kiến thức lập trình hướng đối tượng oop như javac là một lợi thếnắm vững kiến thức lập trình cấu trúc dữ liệu và giải thuậtưu tiên ứng viên đã từng có kinh nghiệm xây dựng ứng dụng backend serverkỹ năng research xử lý các vấn đề khả năng thích ứng nhanh với công việc với các kỹ thuật mớikhả năng làm việc độc lập và làm việc nhómtinh thần học hỏi và nâng cao trình độ bản thân tinh thần trách nhiệm trong công việcxây dựng phát triển các tính năng mới trên ứng dụng backend serverdebug và khắc phục các sự cố gặp phải trong ứng dụngnghiên cứu các công nghệ kỹ thuật mới thực hiện các nhiệm vụ khác được giaonodejs developer</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>có kiến_thức chuyên_ngành lập_trình công_nghệ thông tinkhoa học máy tínham hiểu các ngôn_ngữ javascripttypescriptnodejs có kinh_nghiệm làm_việc với mongodb google cloud firebase authentication realtime database functions ngoài_ra có kiến_thức lập_trình hướng đối_tượng oop như javac là một lợi thếnắm vững kiến_thức lập_trình cấu_trúc dữ_liệu và giải thuậtưu tiên ứng_viên đã từng có kinh_nghiệm xây_dựng ứng_dụng backend serverkỹ năng research xử_lý các vấn_đề khả_năng thích_ứng nhanh với công_việc với các kỹ_thuật mớikhả năng làm_việc độc_lập và làm_việc nhómtinh thần_học_hỏi và nâng cao_trình_độ bản_thân tinh_thần trách_nhiệm trong công việcxây dựng phát_triển các tính_năng mới trên ứng_dụng backend serverdebug và khắc_phục các sự_cố gặp phải trong ứng dụngnghiên cứu các công_nghệ kỹ_thuật mới thực_hiện các nhiệm_vụ khác được giaonodejs developer</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>kiến_thức chuyên_ngành lập_trình công_nghệ thông tinkhoa học máy tínham ngôn_ngữ javascripttypescriptnodejs kinh_nghiệm làm_việc mongodb google cloud firebase authentication realtime database functions ngoài_ra kiến_thức lập_trình hướng đối_tượng oop javac lợi thếnắm vững kiến_thức lập_trình cấu_trúc dữ_liệu giải thuậtưu ứng_viên kinh_nghiệm xây_dựng ứng_dụng backend serverkỹ năng research xử_lý vấn_đề khả_năng thích_ứng công_việc kỹ_thuật mớikhả năng làm_việc độc_lập làm_việc nhómtinh thần_học_hỏi nâng cao_trình_độ bản_thân tinh_thần trách_nhiệm việcxây dựng phát_triển tính_năng ứng_dụng backend serverdebug khắc_phục sự_cố ứng dụngnghiên cứu công_nghệ kỹ_thuật thực_hiện nhiệm_vụ giaonodejs developer</t>
+        </is>
       </c>
     </row>
   </sheetData>
